--- a/biology/Médecine/Université_de_médecine_Karol-Marcinkowski/Université_de_médecine_Karol-Marcinkowski.xlsx
+++ b/biology/Médecine/Université_de_médecine_Karol-Marcinkowski/Université_de_médecine_Karol-Marcinkowski.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Universit%C3%A9_de_m%C3%A9decine_Karol-Marcinkowski</t>
+          <t>Université_de_médecine_Karol-Marcinkowski</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'université de médecine Karol-Marcinkowski (en polonais : Uniwersytet Medyczny im. Karola Marcinkowskiego) est issue de la faculté de médecine et de pharmacie de l'université de Poznań, créée en 1919, dont elle a été enlevée en 1950.
-Elle propose depuis 1991 des formations en anglais conformes aux exigences américaines[1].
+Elle propose depuis 1991 des formations en anglais conformes aux exigences américaines.
 Elle porte son nom actuel depuis 2007.
 </t>
         </is>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Universit%C3%A9_de_m%C3%A9decine_Karol-Marcinkowski</t>
+          <t>Université_de_médecine_Karol-Marcinkowski</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Facultés et départements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Faculté de médecine I (Wydział Lekarski I)
 médecine
@@ -546,7 +560,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Universit%C3%A9_de_m%C3%A9decine_Karol-Marcinkowski</t>
+          <t>Université_de_médecine_Karol-Marcinkowski</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -564,7 +578,9 @@
           <t>Centres hospitalo-universitaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cinq hôpitaux sont liés à l'université :
 nr 1 Szpital Kliniczny Przemienienia Pańskiego przy ul. Długiej 1/2
@@ -583,7 +599,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Universit%C3%A9_de_m%C3%A9decine_Karol-Marcinkowski</t>
+          <t>Université_de_médecine_Karol-Marcinkowski</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -601,7 +617,9 @@
           <t>Anciens élèves</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Michał Gembiak</t>
         </is>
